--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0018-025 - Sales,Penyelia,Penyelia SRM,Pemimpin Cabang,Pemimpin Wilayah,Admin SLN,Admin WEM mengakses report status Non Saless.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0018-025 - Sales,Penyelia,Penyelia SRM,Pemimpin Cabang,Pemimpin Wilayah,Admin SLN,Admin WEM mengakses report status Non Saless.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1F1D63-CE19-4B7E-84CD-F8C15FE27554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E578BB3-988C-4BD5-8286-C2FB987B7389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0302" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0018" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,9 +80,6 @@
     <t>Sales</t>
   </si>
   <si>
-    <t>DGS-317</t>
-  </si>
-  <si>
     <t>Sales/Penyelia/Penyelia SRM/Pemimpin Cabang/ Pemimpin Wilayah/Admin SLN/Admin WEM mengakses report status Non Sales</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
   </si>
   <si>
     <t>USE DigisalesNew; SELECT DISTINCT p.[Id], p.[Nama] AS PegawaiName, p.[Role_Id], mr.Nama AS RoleName, p.[Unit_Id], u.Name AS UnitName,st.Nama AS SalesTypeName, p.SalesTypeId, p.[Npp], +(9)p.Npp +(=) ' - ' +(=) p.Nama +(=) ' +(9)' +(=) mr.Nama +(=) '+(0)'+(0) AS [Text], wil.Code WilayahCode, wil.NamaWilayah WilayahName FROM [dbo].[Tbl_Pegawai] p LEFT JOIN [dbo].[Tbl_Master_Role] mr ON mr.Id = p.Role_Id LEFT JOIN [dbo].[Tbl_Unit] u ON u.Id = p.Unit_Id LEFT JOIN [DigisalesNew].[dbo].[Tbl_SalesType] st ON st.Id = p.SalesTypeId JOIN dbo.Tbl_Wilayah_Pegawai wp ON wp.npp = p.Npp AND wp.isdeleted = 0 LEFT JOIN dbo.Tbl_Unit_Wilayah wil ON wil.Code = wp.Wilayah_code WHERE p.Role_Id = 4</t>
+  </si>
+  <si>
+    <t>SCD0018-025</t>
   </si>
 </sst>
 </file>
@@ -283,43 +283,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,410 +617,404 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="49.7109375" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="V1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="13">
+      <c r="F2" s="7">
         <v>55210</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="7"/>
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="M2" s="8"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="102" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
         <v>32362</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="7"/>
+      <c r="I3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2"/>
       <c r="N3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="14" t="str">
+      <c r="Q3" s="3" t="str">
         <f>"Berikut NPP yang Ada dalam User " &amp; H3</f>
         <v>Berikut NPP yang Ada dalam User Penyelia</v>
       </c>
-      <c r="T3" s="11" t="s">
-        <v>50</v>
+      <c r="T3" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="102" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2">
+        <v>18839</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4">
-        <v>18839</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="7"/>
+      <c r="I4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2"/>
       <c r="N4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="14" t="str">
+      <c r="Q4" s="3" t="str">
         <f t="shared" ref="Q4:Q8" si="0">"Berikut NPP yang Ada dalam User " &amp; H4</f>
         <v>Berikut NPP yang Ada dalam User Pimpinan Cabang</v>
       </c>
-      <c r="T4" s="11" t="s">
-        <v>51</v>
+      <c r="T4" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
         <v>29591</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>37</v>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="N5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" s="14" t="str">
+      <c r="Q5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Berikut NPP yang Ada dalam User Pemimpin Wilayah</v>
       </c>
-      <c r="T5" s="11" t="s">
-        <v>52</v>
+      <c r="T5" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2">
         <v>37400</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>37</v>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="N6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="P6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="14" t="str">
+      <c r="Q6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Berikut NPP yang Ada dalam User Penyelia SRM</v>
       </c>
-      <c r="T6" s="11" t="s">
-        <v>53</v>
+      <c r="T6" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1">
         <v>52326</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>37</v>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="N7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="P7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="14" t="str">
+      <c r="Q7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Berikut NPP yang Ada dalam User Admin SLN</v>
       </c>
-      <c r="T7" s="11" t="s">
-        <v>54</v>
+      <c r="T7" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="225" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1">
+        <v>37679</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8">
-        <v>37679</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="N8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="P8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="14" t="str">
+      <c r="Q8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Berikut NPP yang Ada dalam User Admin WEM</v>
       </c>
-      <c r="T8" s="11" t="s">
-        <v>55</v>
+      <c r="T8" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
